--- a/public/import/daily_template Kasir (2).xlsx
+++ b/public/import/daily_template Kasir (2).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT SUPPORT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MISHOP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>date</t>
   </si>
@@ -138,10 +138,7 @@
     <t>16.00</t>
   </si>
   <si>
-    <t>2022-06-04</t>
-  </si>
-  <si>
-    <t>2022-06-13</t>
+    <t>2022-08-28</t>
   </si>
 </sst>
 </file>
@@ -517,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +538,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -552,7 +549,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -563,7 +560,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -574,7 +571,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
@@ -585,7 +582,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -596,7 +593,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -607,7 +604,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -618,7 +615,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -629,7 +626,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -640,7 +637,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -651,7 +648,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -669,7 +666,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -678,7 +675,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -687,7 +684,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -696,7 +693,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
@@ -705,7 +702,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -714,7 +711,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>18</v>
@@ -732,7 +729,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -741,7 +738,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
@@ -750,7 +747,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>21</v>
@@ -759,7 +756,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
